--- a/bill_of_materials2.xlsx
+++ b/bill_of_materials2.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13920" yWindow="8940" windowWidth="25940" windowHeight="16220" tabRatio="986"/>
+    <workbookView xWindow="14060" yWindow="6060" windowWidth="25660" windowHeight="16060" tabRatio="986"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="output" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="100">
   <si>
     <t>IC's</t>
   </si>
@@ -304,6 +305,21 @@
   </si>
   <si>
     <t>4-643815-0</t>
+  </si>
+  <si>
+    <t>0.272</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>DESC</t>
+  </si>
+  <si>
+    <t>MULTIPLIER</t>
   </si>
 </sst>
 </file>
@@ -385,7 +401,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -393,6 +409,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -745,13 +764,14 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
     <col min="11" max="11" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -890,7 +910,7 @@
       </c>
       <c r="K5">
         <f>SUM(H2:H41)</f>
-        <v>61.886000000000003</v>
+        <v>18985161.886</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24">
@@ -1306,7 +1326,9 @@
       <c r="D21">
         <v>4</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F21" s="4">
         <v>9336257</v>
       </c>
@@ -1326,8 +1348,12 @@
       <c r="D22">
         <v>2</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1632563</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
         <f t="shared" si="1"/>
@@ -1344,8 +1370,12 @@
       <c r="D23">
         <v>4</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1809484</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3">
         <f t="shared" si="1"/>
@@ -1362,8 +1392,12 @@
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1632521</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3">
         <f t="shared" si="1"/>
@@ -1380,8 +1414,12 @@
       <c r="D25">
         <v>4</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1152831</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3">
         <f t="shared" si="1"/>
@@ -1398,8 +1436,12 @@
       <c r="D26">
         <v>9</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1811972</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3">
         <f t="shared" si="1"/>
@@ -1416,8 +1458,12 @@
       <c r="D27">
         <v>8</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1632523</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3">
         <f t="shared" si="1"/>
@@ -1630,14 +1676,20 @@
         <v>81</v>
       </c>
       <c r="D38">
-        <v>4</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1898510</v>
+      </c>
+      <c r="G38" t="s">
+        <v>95</v>
+      </c>
       <c r="H38" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>F38*D38</f>
+        <v>18985100</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1650,9 +1702,13 @@
       <c r="D39">
         <v>3</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1419295</v>
+      </c>
+      <c r="G39" s="5"/>
       <c r="H39" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1671,6 +1727,9 @@
       <c r="E40" t="s">
         <v>11</v>
       </c>
+      <c r="F40">
+        <v>1419986</v>
+      </c>
       <c r="H40">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1711,15 +1770,29 @@
         <v>89</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+      <c r="D42" s="3">
+        <v>100</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1419447</v>
+      </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F21" r:id="rId1" tooltip="9336257" display="http://au.element14.com/multicomp/mc0125w12061270r/resistor-270r-0-125w-1-1206/dp/9336257"/>
+    <hyperlink ref="F22" r:id="rId2" tooltip="1632563" display="http://au.element14.com/multicomp/mc1206s4f3300t5e/thick-film-resistor-330-ohm-250mw/dp/1632563"/>
+    <hyperlink ref="F23" r:id="rId3" tooltip="1809484" display="http://au.element14.com/koa-spear-electronics/rk73b2bttd472j/resistor-1206-4k7-ohm-5/dp/1809484"/>
+    <hyperlink ref="F24" r:id="rId4" tooltip="1632521" display="http://au.element14.com/multicomp/mc1206s4f1000t5e/thick-film-resistor-100-ohm-250mw/dp/1632521"/>
+    <hyperlink ref="F25" r:id="rId5" tooltip="1152831" display="http://au.element14.com/vishay-dale/crcw120622r0fkea/thick-film-resistor-22-ohm-250mw/dp/1152831"/>
+    <hyperlink ref="F26" r:id="rId6" tooltip="1811972" display="http://au.element14.com/koa-spear-electronics/rk73h2bttd1001f/resistor-1206-1k-ohm-1/dp/1811972"/>
+    <hyperlink ref="F27" r:id="rId7" tooltip="1632523" display="http://au.element14.com/multicomp/mc1206s4f1002t5e/thick-film-resistor-10kohm-250mw/dp/1632523"/>
+    <hyperlink ref="F38" r:id="rId8" tooltip="1898510" display="http://au.element14.com/richco/htsa-m3-10-1/aluminium-spacer-f-f-m3-10mm-high/dp/1898510"/>
+    <hyperlink ref="F39" r:id="rId9" tooltip="1419295" display="http://au.element14.com/tr-fastenings/m320-psstmcz100/screw-slt-pan-steel-bzp-m3x20/dp/1419295"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1733,4 +1806,1131 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2">
+        <f>Sheet1!D20</f>
+        <v>0</v>
+      </c>
+      <c r="C2" t="str">
+        <f>Sheet1!A20</f>
+        <v>Resistors</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E8" si="0">B2*D2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F9" si="1">CONCATENATE(CHAR(39),A2,",",E2,",",C2,CHAR(39),)</f>
+        <v>',0,Resistors'</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <f>Sheet1!F28</f>
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <f>Sheet1!D28</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>Sheet1!A28</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="1"/>
+        <v>'0,0,0'</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <f>Sheet1!F29</f>
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <f>Sheet1!D29</f>
+        <v>0</v>
+      </c>
+      <c r="C4" t="str">
+        <f>Sheet1!A29</f>
+        <v>Caps</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>'0,0,Caps'</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <f>Sheet1!F35</f>
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <f>Sheet1!D35</f>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f>Sheet1!A35</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>'0,0,0'</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <f>Sheet1!F36</f>
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <f>Sheet1!D36</f>
+        <v>0</v>
+      </c>
+      <c r="C6" t="str">
+        <f>Sheet1!A36</f>
+        <v>Hardware</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>'0,0,Hardware'</v>
+      </c>
+      <c r="G6" t="str">
+        <f>CHAR(39)</f>
+        <v>'</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <f>Sheet1!F43</f>
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <f>Sheet1!D43</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>Sheet1!A43</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>'0,0,0'</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <f>Sheet1!F44</f>
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <f>Sheet1!D44</f>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f>Sheet1!A44</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>'0,0,0'</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <f>Sheet1!F45</f>
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <f>Sheet1!D45</f>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f>Sheet1!A45</f>
+        <v>0</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>'0,,0'</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <f>Sheet1!F46</f>
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <f>Sheet1!D46</f>
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f>Sheet1!A46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <f>Sheet1!F4</f>
+        <v>2443406</v>
+      </c>
+      <c r="B11">
+        <f>Sheet1!D4</f>
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <f>Sheet1!A4</f>
+        <v>mosfet</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:E46" si="2">B11*D11</f>
+        <v>2</v>
+      </c>
+      <c r="F11" t="str">
+        <f>CONCATENATE(A11,",",E11,",",C11)</f>
+        <v>2443406,2,mosfet</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <f>Sheet1!F5</f>
+        <v>2432145</v>
+      </c>
+      <c r="B12">
+        <f>Sheet1!D5</f>
+        <v>1</v>
+      </c>
+      <c r="C12" t="str">
+        <f>Sheet1!A5</f>
+        <v>temp. sensor</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" ref="F12:F46" si="3">CONCATENATE(A12,",",E12,",",C12)</f>
+        <v>2432145,2,temp. sensor</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <f>Sheet1!F9</f>
+        <v>1924463</v>
+      </c>
+      <c r="B13">
+        <f>Sheet1!D9</f>
+        <v>1</v>
+      </c>
+      <c r="C13" t="str">
+        <f>Sheet1!A9</f>
+        <v>zener</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="3"/>
+        <v>1924463,2,zener</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <f>Sheet1!F11</f>
+        <v>6475802</v>
+      </c>
+      <c r="B14">
+        <f>Sheet1!D11</f>
+        <v>1</v>
+      </c>
+      <c r="C14" t="str">
+        <f>Sheet1!A11</f>
+        <v>zener</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="3"/>
+        <v>6475802,2,zener</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <f>Sheet1!F12</f>
+        <v>1786484</v>
+      </c>
+      <c r="B15">
+        <f>Sheet1!D12</f>
+        <v>1</v>
+      </c>
+      <c r="C15" t="str">
+        <f>Sheet1!A12</f>
+        <v>regulator</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="3"/>
+        <v>1786484,2,regulator</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <f>Sheet1!F31</f>
+        <v>1855909</v>
+      </c>
+      <c r="B16">
+        <f>Sheet1!D31</f>
+        <v>1</v>
+      </c>
+      <c r="C16" t="str">
+        <f>Sheet1!A31</f>
+        <v>1n</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="3"/>
+        <v>1855909,2,1n</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="str">
+        <f>Sheet1!F33</f>
+        <v>1200778</v>
+      </c>
+      <c r="B17">
+        <f>Sheet1!D33</f>
+        <v>1</v>
+      </c>
+      <c r="C17" t="str">
+        <f>Sheet1!A33</f>
+        <v>0.68u</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="3"/>
+        <v>1200778,2,0.68u</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <f>Sheet1!F2</f>
+        <v>1498177</v>
+      </c>
+      <c r="B18">
+        <f>Sheet1!D2</f>
+        <v>2</v>
+      </c>
+      <c r="C18" t="str">
+        <f>Sheet1!A2</f>
+        <v>gate driver</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="3"/>
+        <v>1498177,4,gate driver</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <f>Sheet1!F3</f>
+        <v>2062073</v>
+      </c>
+      <c r="B19">
+        <f>Sheet1!D3</f>
+        <v>2</v>
+      </c>
+      <c r="C19" t="str">
+        <f>Sheet1!A3</f>
+        <v>mosfet</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="3"/>
+        <v>2062073,4,mosfet</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <f>Sheet1!F8</f>
+        <v>1822807</v>
+      </c>
+      <c r="B20">
+        <f>Sheet1!D8</f>
+        <v>2</v>
+      </c>
+      <c r="C20" t="str">
+        <f>Sheet1!A8</f>
+        <v>fuse</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="3"/>
+        <v>1822807,4,fuse</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <f>Sheet1!F10</f>
+        <v>1431142</v>
+      </c>
+      <c r="B21">
+        <f>Sheet1!D10</f>
+        <v>2</v>
+      </c>
+      <c r="C21" t="str">
+        <f>Sheet1!A10</f>
+        <v>zener</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="3"/>
+        <v>1431142,4,zener</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <f>Sheet1!F14</f>
+        <v>588544</v>
+      </c>
+      <c r="B22">
+        <f>Sheet1!D14</f>
+        <v>2</v>
+      </c>
+      <c r="C22" t="str">
+        <f>Sheet1!A14</f>
+        <v>header</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="3"/>
+        <v>588544,4,header</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <f>Sheet1!F15</f>
+        <v>588611</v>
+      </c>
+      <c r="B23">
+        <f>Sheet1!D15</f>
+        <v>2</v>
+      </c>
+      <c r="C23" t="str">
+        <f>Sheet1!A15</f>
+        <v>header</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="3"/>
+        <v>588611,4,header</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <f>Sheet1!F16</f>
+        <v>1363277</v>
+      </c>
+      <c r="B24">
+        <f>Sheet1!D16</f>
+        <v>2</v>
+      </c>
+      <c r="C24" t="str">
+        <f>Sheet1!A16</f>
+        <v>connector</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="3"/>
+        <v>1363277,4,connector</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <f>Sheet1!F17</f>
+        <v>1296705</v>
+      </c>
+      <c r="B25">
+        <f>Sheet1!D17</f>
+        <v>2</v>
+      </c>
+      <c r="C25" t="str">
+        <f>Sheet1!A17</f>
+        <v>connector</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="3"/>
+        <v>1296705,4,connector</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <f>Sheet1!F22</f>
+        <v>1632563</v>
+      </c>
+      <c r="B26">
+        <f>Sheet1!D22</f>
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <f>Sheet1!A22</f>
+        <v>330</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="3"/>
+        <v>1632563,6,330</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <f>Sheet1!F24</f>
+        <v>1632521</v>
+      </c>
+      <c r="B27">
+        <f>Sheet1!D24</f>
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <f>Sheet1!A24</f>
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="3"/>
+        <v>1632521,6,100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <f>Sheet1!F19</f>
+        <v>1843500</v>
+      </c>
+      <c r="B28">
+        <f>Sheet1!D19</f>
+        <v>3</v>
+      </c>
+      <c r="C28" t="str">
+        <f>Sheet1!A19</f>
+        <v>diodes</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="3"/>
+        <v>1843500,6,diodes</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <f>Sheet1!F32</f>
+        <v>2346954</v>
+      </c>
+      <c r="B29">
+        <f>Sheet1!D32</f>
+        <v>3</v>
+      </c>
+      <c r="C29" t="str">
+        <f>Sheet1!A32</f>
+        <v>1u</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="3"/>
+        <v>2346954,6,1u</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <f>Sheet1!F37</f>
+        <v>1577101</v>
+      </c>
+      <c r="B30">
+        <f>Sheet1!D37</f>
+        <v>3</v>
+      </c>
+      <c r="C30" t="str">
+        <f>Sheet1!A37</f>
+        <v>mica pad</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="3"/>
+        <v>1577101,6,mica pad</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <f>Sheet1!F39</f>
+        <v>1419295</v>
+      </c>
+      <c r="B31">
+        <f>Sheet1!D39</f>
+        <v>3</v>
+      </c>
+      <c r="C31" t="str">
+        <f>Sheet1!A39</f>
+        <v>screws</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="3"/>
+        <v>1419295,6,screws</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <f>Sheet1!F41</f>
+        <v>1703100</v>
+      </c>
+      <c r="B32">
+        <f>Sheet1!D41</f>
+        <v>3</v>
+      </c>
+      <c r="C32" t="str">
+        <f>Sheet1!A41</f>
+        <v>insulated washer</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="3"/>
+        <v>1703100,6,insulated washer</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <f>Sheet1!F21</f>
+        <v>9336257</v>
+      </c>
+      <c r="B33">
+        <f>Sheet1!D21</f>
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <f>Sheet1!A21</f>
+        <v>270</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="3"/>
+        <v>9336257,12,270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <f>Sheet1!F23</f>
+        <v>1809484</v>
+      </c>
+      <c r="B34">
+        <f>Sheet1!D23</f>
+        <v>4</v>
+      </c>
+      <c r="C34" t="str">
+        <f>Sheet1!A23</f>
+        <v>4.7k</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="3"/>
+        <v>1809484,12,4.7k</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <f>Sheet1!F25</f>
+        <v>1152831</v>
+      </c>
+      <c r="B35">
+        <f>Sheet1!D25</f>
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <f>Sheet1!A25</f>
+        <v>22</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="3"/>
+        <v>1152831,12,22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <f>Sheet1!F40</f>
+        <v>1419986</v>
+      </c>
+      <c r="B36">
+        <f>Sheet1!D40</f>
+        <v>4</v>
+      </c>
+      <c r="C36" t="str">
+        <f>Sheet1!A40</f>
+        <v>screws</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="3"/>
+        <v>1419986,8,screws</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <f>Sheet1!F7</f>
+        <v>1459099</v>
+      </c>
+      <c r="B37">
+        <f>Sheet1!D7</f>
+        <v>5</v>
+      </c>
+      <c r="C37" t="str">
+        <f>Sheet1!A7</f>
+        <v>pnp</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="3"/>
+        <v>1459099,10,pnp</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <f>Sheet1!F18</f>
+        <v>1225849</v>
+      </c>
+      <c r="B38">
+        <f>Sheet1!D18</f>
+        <v>5</v>
+      </c>
+      <c r="C38" t="str">
+        <f>Sheet1!A18</f>
+        <v>optocoupler</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="3"/>
+        <v>1225849,10,optocoupler</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="str">
+        <f>Sheet1!F34</f>
+        <v>1327718</v>
+      </c>
+      <c r="B39">
+        <f>Sheet1!D34</f>
+        <v>5</v>
+      </c>
+      <c r="C39" t="str">
+        <f>Sheet1!A34</f>
+        <v>470n</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="3"/>
+        <v>1327718,10,470n</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <f>Sheet1!F6</f>
+        <v>1459098</v>
+      </c>
+      <c r="B40">
+        <f>Sheet1!D6</f>
+        <v>6</v>
+      </c>
+      <c r="C40" t="str">
+        <f>Sheet1!A6</f>
+        <v>npn</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="3"/>
+        <v>1459098,12,npn</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <f>Sheet1!F27</f>
+        <v>1632523</v>
+      </c>
+      <c r="B41">
+        <f>Sheet1!D27</f>
+        <v>8</v>
+      </c>
+      <c r="C41" t="str">
+        <f>Sheet1!A27</f>
+        <v>10k</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="3"/>
+        <v>1632523,24,10k</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <f>Sheet1!F26</f>
+        <v>1811972</v>
+      </c>
+      <c r="B42">
+        <f>Sheet1!D26</f>
+        <v>9</v>
+      </c>
+      <c r="C42" t="str">
+        <f>Sheet1!A26</f>
+        <v>1k</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="3"/>
+        <v>1811972,27,1k</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <f>Sheet1!F13</f>
+        <v>4215618</v>
+      </c>
+      <c r="B43">
+        <f>Sheet1!D13</f>
+        <v>10</v>
+      </c>
+      <c r="C43" t="str">
+        <f>Sheet1!A13</f>
+        <v>pcb crimp tab</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="3"/>
+        <v>4215618,20,pcb crimp tab</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <f>Sheet1!F30</f>
+        <v>1327703</v>
+      </c>
+      <c r="B44">
+        <f>Sheet1!D30</f>
+        <v>10</v>
+      </c>
+      <c r="C44" t="str">
+        <f>Sheet1!A30</f>
+        <v>100n</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="3"/>
+        <v>1327703,20,100n</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <f>Sheet1!F38</f>
+        <v>1898510</v>
+      </c>
+      <c r="B45">
+        <f>Sheet1!D38</f>
+        <v>10</v>
+      </c>
+      <c r="C45" t="str">
+        <f>Sheet1!A38</f>
+        <v>standoffs</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="3"/>
+        <v>1898510,20,standoffs</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <f>Sheet1!F42</f>
+        <v>1419447</v>
+      </c>
+      <c r="B46">
+        <f>Sheet1!D42</f>
+        <v>100</v>
+      </c>
+      <c r="C46" t="str">
+        <f>Sheet1!A42</f>
+        <v>nuts</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="3"/>
+        <v>1419447,200,nuts</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F46">
+    <sortCondition ref="B2:B46"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/bill_of_materials2.xlsx
+++ b/bill_of_materials2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14060" yWindow="6060" windowWidth="25660" windowHeight="16060" tabRatio="986"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="986"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -764,7 +764,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>

--- a/bill_of_materials2.xlsx
+++ b/bill_of_materials2.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26505"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francisconroy/Documents/repos/NU-Racing---ETC-and-manumatic-Electronics/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="986"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="986"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="output" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -436,6 +441,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -764,10 +774,10 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
@@ -775,7 +785,7 @@
     <col min="11" max="11" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -804,7 +814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -828,7 +838,7 @@
         <v>11.42</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -855,7 +865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -885,7 +895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -913,7 +923,7 @@
         <v>18985161.886</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="24">
+    <row r="6" spans="1:11" ht="26" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -937,7 +947,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="24">
+    <row r="7" spans="1:11" ht="26" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -964,7 +974,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -997,7 +1007,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1030,7 +1040,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1060,7 +1070,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1090,7 +1100,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1117,7 +1127,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1144,7 +1154,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -1174,7 +1184,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -1202,7 +1212,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1226,7 +1236,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1253,7 +1263,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1280,7 +1290,7 @@
         <v>1.135</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1307,7 +1317,7 @@
         <v>1.2929999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -1316,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>270</v>
       </c>
@@ -1338,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>330</v>
       </c>
@@ -1360,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -1382,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>100</v>
       </c>
@@ -1404,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1426,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1448,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1470,13 +1480,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
@@ -1485,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -1515,7 +1525,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -1542,7 +1552,7 @@
         <v>0.252</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -1569,7 +1579,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -1599,7 +1609,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -1629,13 +1639,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="H35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>77</v>
       </c>
@@ -1644,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -1668,7 +1678,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -1692,7 +1702,7 @@
         <v>18985100</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -1714,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -1735,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -1762,7 +1772,7 @@
         <v>1.0110000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -1800,11 +1810,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1816,12 +1821,12 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>96</v>
       </c>
@@ -1835,7 +1840,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B2">
         <f>Sheet1!D20</f>
         <v>0</v>
@@ -1853,7 +1858,7 @@
         <v>',0,Resistors'</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <f>Sheet1!F28</f>
         <v>0</v>
@@ -1875,7 +1880,7 @@
         <v>'0,0,0'</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <f>Sheet1!F29</f>
         <v>0</v>
@@ -1897,7 +1902,7 @@
         <v>'0,0,Caps'</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <f>Sheet1!F35</f>
         <v>0</v>
@@ -1919,7 +1924,7 @@
         <v>'0,0,0'</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <f>Sheet1!F36</f>
         <v>0</v>
@@ -1945,7 +1950,7 @@
         <v>'</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <f>Sheet1!F43</f>
         <v>0</v>
@@ -1967,7 +1972,7 @@
         <v>'0,0,0'</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <f>Sheet1!F44</f>
         <v>0</v>
@@ -1989,7 +1994,7 @@
         <v>'0,0,0'</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <f>Sheet1!F45</f>
         <v>0</v>
@@ -2007,7 +2012,7 @@
         <v>'0,,0'</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <f>Sheet1!F46</f>
         <v>0</v>
@@ -2021,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <f>Sheet1!F4</f>
         <v>2443406</v>
@@ -2046,7 +2051,7 @@
         <v>2443406,2,mosfet</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <f>Sheet1!F5</f>
         <v>2432145</v>
@@ -2071,7 +2076,7 @@
         <v>2432145,2,temp. sensor</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <f>Sheet1!F9</f>
         <v>1924463</v>
@@ -2096,7 +2101,7 @@
         <v>1924463,2,zener</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <f>Sheet1!F11</f>
         <v>6475802</v>
@@ -2121,7 +2126,7 @@
         <v>6475802,2,zener</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <f>Sheet1!F12</f>
         <v>1786484</v>
@@ -2146,7 +2151,7 @@
         <v>1786484,2,regulator</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <f>Sheet1!F31</f>
         <v>1855909</v>
@@ -2171,7 +2176,7 @@
         <v>1855909,2,1n</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="str">
         <f>Sheet1!F33</f>
         <v>1200778</v>
@@ -2196,7 +2201,7 @@
         <v>1200778,2,0.68u</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <f>Sheet1!F2</f>
         <v>1498177</v>
@@ -2221,7 +2226,7 @@
         <v>1498177,4,gate driver</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <f>Sheet1!F3</f>
         <v>2062073</v>
@@ -2246,7 +2251,7 @@
         <v>2062073,4,mosfet</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <f>Sheet1!F8</f>
         <v>1822807</v>
@@ -2271,7 +2276,7 @@
         <v>1822807,4,fuse</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <f>Sheet1!F10</f>
         <v>1431142</v>
@@ -2296,7 +2301,7 @@
         <v>1431142,4,zener</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <f>Sheet1!F14</f>
         <v>588544</v>
@@ -2321,7 +2326,7 @@
         <v>588544,4,header</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <f>Sheet1!F15</f>
         <v>588611</v>
@@ -2346,7 +2351,7 @@
         <v>588611,4,header</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
         <f>Sheet1!F16</f>
         <v>1363277</v>
@@ -2371,7 +2376,7 @@
         <v>1363277,4,connector</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25">
         <f>Sheet1!F17</f>
         <v>1296705</v>
@@ -2396,7 +2401,7 @@
         <v>1296705,4,connector</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26">
         <f>Sheet1!F22</f>
         <v>1632563</v>
@@ -2421,7 +2426,7 @@
         <v>1632563,6,330</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27">
         <f>Sheet1!F24</f>
         <v>1632521</v>
@@ -2446,7 +2451,7 @@
         <v>1632521,6,100</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28">
         <f>Sheet1!F19</f>
         <v>1843500</v>
@@ -2471,7 +2476,7 @@
         <v>1843500,6,diodes</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29">
         <f>Sheet1!F32</f>
         <v>2346954</v>
@@ -2496,7 +2501,7 @@
         <v>2346954,6,1u</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30">
         <f>Sheet1!F37</f>
         <v>1577101</v>
@@ -2521,7 +2526,7 @@
         <v>1577101,6,mica pad</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31">
         <f>Sheet1!F39</f>
         <v>1419295</v>
@@ -2546,7 +2551,7 @@
         <v>1419295,6,screws</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32">
         <f>Sheet1!F41</f>
         <v>1703100</v>
@@ -2571,7 +2576,7 @@
         <v>1703100,6,insulated washer</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <f>Sheet1!F21</f>
         <v>9336257</v>
@@ -2596,7 +2601,7 @@
         <v>9336257,12,270</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
         <f>Sheet1!F23</f>
         <v>1809484</v>
@@ -2621,7 +2626,7 @@
         <v>1809484,12,4.7k</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35">
         <f>Sheet1!F25</f>
         <v>1152831</v>
@@ -2646,7 +2651,7 @@
         <v>1152831,12,22</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36">
         <f>Sheet1!F40</f>
         <v>1419986</v>
@@ -2671,7 +2676,7 @@
         <v>1419986,8,screws</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37">
         <f>Sheet1!F7</f>
         <v>1459099</v>
@@ -2696,7 +2701,7 @@
         <v>1459099,10,pnp</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38">
         <f>Sheet1!F18</f>
         <v>1225849</v>
@@ -2721,7 +2726,7 @@
         <v>1225849,10,optocoupler</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="str">
         <f>Sheet1!F34</f>
         <v>1327718</v>
@@ -2746,7 +2751,7 @@
         <v>1327718,10,470n</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40">
         <f>Sheet1!F6</f>
         <v>1459098</v>
@@ -2771,7 +2776,7 @@
         <v>1459098,12,npn</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41">
         <f>Sheet1!F27</f>
         <v>1632523</v>
@@ -2796,7 +2801,7 @@
         <v>1632523,24,10k</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42">
         <f>Sheet1!F26</f>
         <v>1811972</v>
@@ -2821,7 +2826,7 @@
         <v>1811972,27,1k</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43">
         <f>Sheet1!F13</f>
         <v>4215618</v>
@@ -2846,7 +2851,7 @@
         <v>4215618,20,pcb crimp tab</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44">
         <f>Sheet1!F30</f>
         <v>1327703</v>
@@ -2871,7 +2876,7 @@
         <v>1327703,20,100n</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45">
         <f>Sheet1!F38</f>
         <v>1898510</v>
@@ -2896,7 +2901,7 @@
         <v>1898510,20,standoffs</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46">
         <f>Sheet1!F42</f>
         <v>1419447</v>
@@ -2927,10 +2932,5 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>